--- a/data/trans_orig/P34D1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9F9D7B-81B9-48EA-96AC-D69CB445CDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{929D56A6-4500-4D0D-8A4A-7E2524C21A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E98015B-F759-4D7C-AF6D-8A90E88F0DDC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5222C79A-C74E-4F00-8F3B-5F97A31BB5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="736">
   <si>
     <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2015 (Tasa respuesta: 9,54%)</t>
   </si>
@@ -72,2194 +72,2179 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69995DAA-6C7D-4F68-B2C7-E8A077C373D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E030C8B-D72A-4C21-AD00-7539B1CA337B}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3065,13 +3050,13 @@
         <v>9311</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -3080,13 +3065,13 @@
         <v>30623</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3086,13 @@
         <v>21239</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3116,13 +3101,13 @@
         <v>1950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3131,13 +3116,13 @@
         <v>23189</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3137,13 @@
         <v>139534</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -3167,13 +3152,13 @@
         <v>46162</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>177</v>
@@ -3182,18 +3167,18 @@
         <v>185696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -3205,13 +3190,13 @@
         <v>7164</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3220,13 +3205,13 @@
         <v>943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3235,13 +3220,13 @@
         <v>8108</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3241,13 @@
         <v>8438</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3271,13 +3256,13 @@
         <v>2777</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3286,13 +3271,13 @@
         <v>11215</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3292,13 @@
         <v>35138</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3322,13 +3307,13 @@
         <v>3924</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3337,13 +3322,13 @@
         <v>39063</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3343,13 @@
         <v>11858</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -3373,13 +3358,13 @@
         <v>3015</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -3388,13 +3373,13 @@
         <v>14873</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3394,13 @@
         <v>41513</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3424,13 +3409,13 @@
         <v>15998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -3439,13 +3424,13 @@
         <v>57511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3445,13 @@
         <v>32916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3475,13 +3460,13 @@
         <v>13391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3490,13 +3475,13 @@
         <v>46308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3496,13 @@
         <v>26079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3526,13 +3511,13 @@
         <v>5773</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3541,13 +3526,13 @@
         <v>31852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3547,13 @@
         <v>163107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -3577,13 +3562,13 @@
         <v>45822</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -3592,18 +3577,18 @@
         <v>208930</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -3615,13 +3600,13 @@
         <v>10911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3630,13 +3615,13 @@
         <v>1562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3645,13 +3630,13 @@
         <v>12473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3651,13 @@
         <v>4054</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3681,13 +3666,13 @@
         <v>2104</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -3696,13 +3681,13 @@
         <v>6158</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3702,13 @@
         <v>21696</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3732,13 +3717,13 @@
         <v>8230</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -3747,13 +3732,13 @@
         <v>29926</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3753,13 @@
         <v>15128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3783,13 +3768,13 @@
         <v>4886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -3798,13 +3783,13 @@
         <v>20015</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3804,13 @@
         <v>12089</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -3834,13 +3819,13 @@
         <v>16562</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -3849,13 +3834,13 @@
         <v>28651</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3855,13 @@
         <v>21348</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3885,13 +3870,13 @@
         <v>7716</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -3900,13 +3885,13 @@
         <v>29064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3906,13 @@
         <v>13333</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3936,13 +3921,13 @@
         <v>3477</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -3951,13 +3936,13 @@
         <v>16810</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3957,13 @@
         <v>98559</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" s="7">
         <v>44</v>
@@ -3987,13 +3972,13 @@
         <v>44538</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
         <v>137</v>
@@ -4002,18 +3987,18 @@
         <v>143097</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
@@ -4025,13 +4010,13 @@
         <v>4582</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -4040,13 +4025,13 @@
         <v>1025</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -4055,13 +4040,13 @@
         <v>5607</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4061,13 @@
         <v>1004</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4094,10 +4079,10 @@
         <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4106,13 +4091,13 @@
         <v>1004</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4112,13 @@
         <v>10736</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -4142,13 +4127,13 @@
         <v>3090</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -4157,13 +4142,13 @@
         <v>13826</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4163,13 @@
         <v>2895</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4196,10 +4181,10 @@
         <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4208,13 +4193,13 @@
         <v>6053</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4214,13 @@
         <v>12737</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4244,13 +4229,13 @@
         <v>6577</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -4259,13 +4244,13 @@
         <v>19314</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4265,13 @@
         <v>8971</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -4295,13 +4280,13 @@
         <v>4248</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -4310,13 +4295,13 @@
         <v>13219</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4316,13 @@
         <v>9225</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4346,13 +4331,13 @@
         <v>3271</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -4361,13 +4346,13 @@
         <v>12496</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4367,13 @@
         <v>50150</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -4397,13 +4382,13 @@
         <v>21369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>66</v>
@@ -4412,18 +4397,18 @@
         <v>71519</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -4435,13 +4420,13 @@
         <v>4405</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4453,10 +4438,10 @@
         <v>23</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -4465,13 +4450,13 @@
         <v>4405</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4471,13 @@
         <v>1049</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4501,13 +4486,13 @@
         <v>1117</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4516,13 +4501,13 @@
         <v>2166</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4522,13 @@
         <v>5526</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4555,10 +4540,10 @@
         <v>23</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -4567,13 +4552,13 @@
         <v>5526</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,10 +4576,10 @@
         <v>23</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -4606,10 +4591,10 @@
         <v>23</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -4621,10 +4606,10 @@
         <v>23</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4624,13 @@
         <v>4584</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -4654,13 +4639,13 @@
         <v>3449</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -4669,13 +4654,13 @@
         <v>8033</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4675,13 @@
         <v>10909</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -4705,13 +4690,13 @@
         <v>1115</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -4720,13 +4705,13 @@
         <v>12024</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4726,13 @@
         <v>4809</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -4756,13 +4741,13 @@
         <v>4123</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -4771,13 +4756,13 @@
         <v>8932</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4777,13 @@
         <v>31282</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H43" s="7">
         <v>8</v>
@@ -4807,13 +4792,13 @@
         <v>9805</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M43" s="7">
         <v>36</v>
@@ -4822,18 +4807,18 @@
         <v>41087</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -4845,13 +4830,13 @@
         <v>868</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -4860,13 +4845,13 @@
         <v>909</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -4875,13 +4860,13 @@
         <v>1777</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,10 +4884,10 @@
         <v>23</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4914,10 +4899,10 @@
         <v>23</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -4929,10 +4914,10 @@
         <v>23</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4932,13 @@
         <v>2623</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4962,13 +4947,13 @@
         <v>1079</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -4977,13 +4962,13 @@
         <v>3702</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,10 +4986,10 @@
         <v>23</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -5016,10 +5001,10 @@
         <v>23</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -5031,10 +5016,10 @@
         <v>23</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5034,13 @@
         <v>936</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -5067,10 +5052,10 @@
         <v>23</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -5079,13 +5064,13 @@
         <v>936</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5085,13 @@
         <v>946</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -5115,13 +5100,13 @@
         <v>1016</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -5130,13 +5115,13 @@
         <v>1962</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,10 +5139,10 @@
         <v>23</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -5166,13 +5151,13 @@
         <v>1838</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -5181,13 +5166,13 @@
         <v>1838</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5187,13 @@
         <v>5374</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -5217,13 +5202,13 @@
         <v>4842</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M51" s="7">
         <v>10</v>
@@ -5232,13 +5217,13 @@
         <v>10216</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5240,13 @@
         <v>31041</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
@@ -5270,13 +5255,13 @@
         <v>7243</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M52" s="7">
         <v>36</v>
@@ -5288,10 +5273,10 @@
         <v>329</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5291,13 @@
         <v>24755</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>8</v>
@@ -5321,13 +5306,13 @@
         <v>7884</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M53" s="7">
         <v>31</v>
@@ -5336,13 +5321,13 @@
         <v>32640</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5342,13 @@
         <v>108771</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H54" s="7">
         <v>23</v>
@@ -5372,13 +5357,13 @@
         <v>23144</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M54" s="7">
         <v>126</v>
@@ -5387,13 +5372,13 @@
         <v>131915</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5393,13 @@
         <v>49758</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H55" s="7">
         <v>16</v>
@@ -5423,13 +5408,13 @@
         <v>16288</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M55" s="7">
         <v>62</v>
@@ -5438,13 +5423,13 @@
         <v>66046</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>354</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5444,13 @@
         <v>102595</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H56" s="7">
         <v>61</v>
@@ -5474,13 +5459,13 @@
         <v>60748</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M56" s="7">
         <v>160</v>
@@ -5489,13 +5474,13 @@
         <v>163343</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5495,13 @@
         <v>96401</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H57" s="7">
         <v>37</v>
@@ -5525,13 +5510,13 @@
         <v>36798</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M57" s="7">
         <v>128</v>
@@ -5540,13 +5525,13 @@
         <v>133199</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5546,13 @@
         <v>74685</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>108</v>
+        <v>374</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H58" s="7">
         <v>18</v>
@@ -5576,13 +5561,13 @@
         <v>20433</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M58" s="7">
         <v>84</v>
@@ -5591,13 +5576,13 @@
         <v>95117</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5597,13 @@
         <v>488006</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H59" s="7">
         <v>170</v>
@@ -5627,13 +5612,13 @@
         <v>172539</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M59" s="7">
         <v>627</v>
@@ -5642,18 +5627,18 @@
         <v>660545</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5675,7 +5660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AF2B0C-6D72-4927-9E9A-8E3551F7A32C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B046D4-0358-4684-9418-41BE7564C796}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5692,7 +5677,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5799,13 +5784,13 @@
         <v>3505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5814,13 +5799,13 @@
         <v>1094</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5829,13 +5814,13 @@
         <v>4599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5835,13 @@
         <v>13386</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5865,13 +5850,13 @@
         <v>5383</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5880,13 +5865,13 @@
         <v>18770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5886,13 @@
         <v>48180</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -5916,13 +5901,13 @@
         <v>8302</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>401</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -5931,13 +5916,13 @@
         <v>56481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5937,13 @@
         <v>15205</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5967,13 +5952,13 @@
         <v>13126</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5982,13 +5967,13 @@
         <v>28331</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5988,13 @@
         <v>61808</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6018,13 +6003,13 @@
         <v>15966</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -6033,13 +6018,13 @@
         <v>77773</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6039,13 @@
         <v>24192</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -6069,13 +6054,13 @@
         <v>8747</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6084,13 +6069,13 @@
         <v>32939</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6090,13 @@
         <v>17630</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6120,13 +6105,13 @@
         <v>4546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6135,13 +6120,13 @@
         <v>22177</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>433</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6141,13 @@
         <v>183906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6171,13 +6156,13 @@
         <v>57164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -6186,18 +6171,18 @@
         <v>241070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -6209,13 +6194,13 @@
         <v>5501</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6224,13 +6209,13 @@
         <v>3623</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>148</v>
+        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -6239,10 +6224,10 @@
         <v>9124</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>440</v>
@@ -6260,13 +6245,13 @@
         <v>3819</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6275,13 +6260,13 @@
         <v>3495</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6296,7 +6281,7 @@
         <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,13 +6296,13 @@
         <v>37643</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -6326,13 +6311,13 @@
         <v>18660</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -6341,7 +6326,7 @@
         <v>56303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>453</v>
@@ -6398,7 +6383,7 @@
         <v>462</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>273</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6398,13 @@
         <v>37074</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6428,13 +6413,13 @@
         <v>12663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6443,13 +6428,13 @@
         <v>49737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6449,13 @@
         <v>21472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6479,13 +6464,13 @@
         <v>14764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -6494,13 +6479,13 @@
         <v>36236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6500,13 @@
         <v>10205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -6530,13 +6515,13 @@
         <v>3799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -6545,13 +6530,13 @@
         <v>14003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6551,13 @@
         <v>134219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -6581,13 +6566,13 @@
         <v>61830</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -6596,18 +6581,18 @@
         <v>196049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -6619,13 +6604,13 @@
         <v>5354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>490</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6634,13 +6619,13 @@
         <v>1660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6649,13 +6634,13 @@
         <v>7014</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6655,13 @@
         <v>10962</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6685,13 +6670,13 @@
         <v>1529</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -6700,13 +6685,13 @@
         <v>12492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6706,13 @@
         <v>25801</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6736,28 +6721,28 @@
         <v>15058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
       </c>
       <c r="N22" s="7">
-        <v>40859</v>
+        <v>40860</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6757,13 @@
         <v>21344</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6787,13 +6772,13 @@
         <v>6204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -6802,13 +6787,13 @@
         <v>27548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6808,13 @@
         <v>40971</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -6838,28 +6823,28 @@
         <v>19054</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>523</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
       </c>
       <c r="N24" s="7">
-        <v>60024</v>
+        <v>60025</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>221</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6859,13 @@
         <v>26817</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>52</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -6889,13 +6874,13 @@
         <v>11016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>523</v>
+        <v>207</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>524</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6904,13 +6889,13 @@
         <v>37833</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6910,13 @@
         <v>15617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>534</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6940,13 +6925,13 @@
         <v>3729</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -6955,13 +6940,13 @@
         <v>19345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +6961,13 @@
         <v>146866</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6991,33 +6976,33 @@
         <v>58250</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
         <v>214</v>
       </c>
       <c r="N27" s="7">
-        <v>205115</v>
+        <v>205116</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
@@ -7029,13 +7014,13 @@
         <v>2263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7044,13 +7029,13 @@
         <v>1395</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>89</v>
+        <v>544</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7059,13 +7044,13 @@
         <v>3658</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7065,13 @@
         <v>2684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>353</v>
+        <v>551</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -7095,13 +7080,13 @@
         <v>1267</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>543</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7110,13 +7095,13 @@
         <v>3951</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>546</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7116,13 @@
         <v>21290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>548</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -7146,13 +7131,13 @@
         <v>11292</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>275</v>
+        <v>559</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -7161,13 +7146,13 @@
         <v>32582</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7167,13 @@
         <v>22337</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7197,13 +7182,13 @@
         <v>9426</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="M31" s="7">
         <v>24</v>
@@ -7212,13 +7197,13 @@
         <v>31763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7218,13 @@
         <v>38355</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -7248,13 +7233,13 @@
         <v>14449</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -7263,13 +7248,13 @@
         <v>52803</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7269,13 @@
         <v>14366</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>187</v>
+        <v>580</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -7299,13 +7284,13 @@
         <v>8802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>376</v>
+        <v>582</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="M33" s="7">
         <v>29</v>
@@ -7314,13 +7299,13 @@
         <v>23168</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>576</v>
+        <v>155</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7320,13 @@
         <v>9396</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7350,13 +7335,13 @@
         <v>1965</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>582</v>
+        <v>41</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -7365,13 +7350,13 @@
         <v>11360</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>287</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7371,13 @@
         <v>110690</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -7401,13 +7386,13 @@
         <v>48595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>177</v>
@@ -7416,18 +7401,18 @@
         <v>159284</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -7439,13 +7424,13 @@
         <v>3169</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>429</v>
+        <v>597</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -7454,13 +7439,13 @@
         <v>2163</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>590</v>
+        <v>283</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>591</v>
+        <v>33</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -7469,13 +7454,13 @@
         <v>5331</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>471</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7475,13 @@
         <v>2305</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7508,10 +7493,10 @@
         <v>23</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7520,13 +7505,13 @@
         <v>2305</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>20</v>
+        <v>488</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7526,13 @@
         <v>8961</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -7556,13 +7541,13 @@
         <v>5610</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>211</v>
+        <v>610</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -7571,13 +7556,13 @@
         <v>14571</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7577,13 @@
         <v>5532</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>220</v>
+        <v>616</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -7607,13 +7592,13 @@
         <v>1901</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>23</v>
+        <v>619</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>609</v>
+        <v>371</v>
       </c>
       <c r="M39" s="7">
         <v>10</v>
@@ -7622,13 +7607,13 @@
         <v>7432</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>611</v>
+        <v>401</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7628,13 @@
         <v>9182</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -7658,13 +7643,13 @@
         <v>2496</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="M40" s="7">
         <v>17</v>
@@ -7673,13 +7658,13 @@
         <v>11678</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>620</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7679,13 @@
         <v>8564</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -7709,13 +7694,13 @@
         <v>5158</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="M41" s="7">
         <v>18</v>
@@ -7724,13 +7709,13 @@
         <v>13721</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>628</v>
+        <v>563</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7730,13 @@
         <v>7828</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -7760,13 +7745,13 @@
         <v>1324</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -7775,13 +7760,13 @@
         <v>9151</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>637</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7781,13 @@
         <v>45540</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7811,13 +7796,13 @@
         <v>18651</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M43" s="7">
         <v>84</v>
@@ -7826,18 +7811,18 @@
         <v>64190</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -7849,13 +7834,13 @@
         <v>3301</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>639</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -7864,13 +7849,13 @@
         <v>941</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -7879,13 +7864,13 @@
         <v>4242</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7885,13 @@
         <v>2801</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7918,10 +7903,10 @@
         <v>23</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="M45" s="7">
         <v>4</v>
@@ -7930,13 +7915,13 @@
         <v>2801</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>652</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7936,13 @@
         <v>5356</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>134</v>
+        <v>658</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -7966,13 +7951,13 @@
         <v>1258</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>371</v>
+        <v>660</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="M46" s="7">
         <v>11</v>
@@ -7981,13 +7966,13 @@
         <v>6614</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>551</v>
+        <v>663</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +7987,13 @@
         <v>1668</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -8017,13 +8002,13 @@
         <v>615</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -8032,13 +8017,13 @@
         <v>2283</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>665</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8038,13 @@
         <v>3557</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -8068,13 +8053,13 @@
         <v>877</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="M48" s="7">
         <v>7</v>
@@ -8083,13 +8068,13 @@
         <v>4434</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>671</v>
+        <v>25</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8089,13 @@
         <v>6966</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -8119,13 +8104,13 @@
         <v>803</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M49" s="7">
         <v>12</v>
@@ -8134,13 +8119,13 @@
         <v>7769</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>677</v>
+        <v>394</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8140,13 @@
         <v>159</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>538</v>
+        <v>682</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -8170,13 +8155,13 @@
         <v>769</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -8185,13 +8170,13 @@
         <v>929</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8191,13 @@
         <v>23809</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H51" s="7">
         <v>12</v>
@@ -8221,13 +8206,13 @@
         <v>5263</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M51" s="7">
         <v>47</v>
@@ -8236,13 +8221,13 @@
         <v>29072</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8244,13 @@
         <v>23093</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>190</v>
+        <v>596</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H52" s="7">
         <v>13</v>
@@ -8274,13 +8259,13 @@
         <v>10875</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="M52" s="7">
         <v>35</v>
@@ -8289,13 +8274,13 @@
         <v>33968</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>690</v>
+        <v>390</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8295,13 @@
         <v>35957</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>692</v>
+        <v>548</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>693</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>274</v>
+        <v>694</v>
       </c>
       <c r="H53" s="7">
         <v>11</v>
@@ -8325,10 +8310,10 @@
         <v>11675</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>695</v>
+        <v>596</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>696</v>
@@ -8361,13 +8346,13 @@
         <v>147230</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>701</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>702</v>
+        <v>556</v>
       </c>
       <c r="H54" s="7">
         <v>72</v>
@@ -8376,13 +8361,13 @@
         <v>60179</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="M54" s="7">
         <v>188</v>
@@ -8391,13 +8376,13 @@
         <v>207409</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>707</v>
+        <v>568</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8397,13 @@
         <v>84592</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H55" s="7">
         <v>28</v>
@@ -8427,13 +8412,13 @@
         <v>36098</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>712</v>
+        <v>583</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M55" s="7">
         <v>91</v>
@@ -8442,13 +8427,13 @@
         <v>120689</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>509</v>
+        <v>711</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8448,13 @@
         <v>190946</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H56" s="7">
         <v>75</v>
@@ -8478,13 +8463,13 @@
         <v>65504</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M56" s="7">
         <v>221</v>
@@ -8493,13 +8478,13 @@
         <v>256450</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,13 +8499,13 @@
         <v>102376</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H57" s="7">
         <v>55</v>
@@ -8529,13 +8514,13 @@
         <v>49290</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>729</v>
+        <v>37</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>730</v>
+        <v>528</v>
       </c>
       <c r="M57" s="7">
         <v>141</v>
@@ -8544,13 +8529,13 @@
         <v>151666</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>732</v>
+        <v>176</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,16 +8547,16 @@
         <v>46</v>
       </c>
       <c r="D58" s="7">
-        <v>60834</v>
+        <v>60835</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H58" s="7">
         <v>18</v>
@@ -8580,13 +8565,13 @@
         <v>16132</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>410</v>
+        <v>730</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="M58" s="7">
         <v>64</v>
@@ -8595,13 +8580,13 @@
         <v>76967</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,16 +8598,16 @@
         <v>510</v>
       </c>
       <c r="D59" s="7">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H59" s="7">
         <v>272</v>
@@ -8631,13 +8616,13 @@
         <v>249753</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M59" s="7">
         <v>782</v>
@@ -8646,18 +8631,18 @@
         <v>894781</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D1-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929D56A6-4500-4D0D-8A4A-7E2524C21A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B18E464-6EEA-468B-A230-F2A3CAB81ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5222C79A-C74E-4F00-8F3B-5F97A31BB5CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B02BF574-1403-46E6-B02D-26E4E5DC377E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="736">
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2015 (Tasa respuesta: 9,54%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="742">
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2016 (Tasa respuesta: 9,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,2152 +72,2170 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>14,06%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
   </si>
   <si>
     <t>19,98%</t>
@@ -2656,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E030C8B-D72A-4C21-AD00-7539B1CA337B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90984B23-C13B-4EAC-A67C-830F7489154A}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3050,13 +3068,13 @@
         <v>9311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -3065,13 +3083,13 @@
         <v>30623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3104,13 @@
         <v>21239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3101,13 +3119,13 @@
         <v>1950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3116,13 +3134,13 @@
         <v>23189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3155,13 @@
         <v>139534</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -3152,13 +3170,13 @@
         <v>46162</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>177</v>
@@ -3167,18 +3185,18 @@
         <v>185696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -3190,13 +3208,13 @@
         <v>7164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3205,13 +3223,13 @@
         <v>943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3220,13 +3238,13 @@
         <v>8108</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3259,13 @@
         <v>8438</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3256,13 +3274,13 @@
         <v>2777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3271,13 +3289,13 @@
         <v>11215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3310,13 @@
         <v>35138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3307,13 +3325,13 @@
         <v>3924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3322,13 +3340,13 @@
         <v>39063</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3361,13 @@
         <v>11858</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -3358,13 +3376,13 @@
         <v>3015</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -3373,13 +3391,13 @@
         <v>14873</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3412,13 @@
         <v>41513</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3409,13 +3427,13 @@
         <v>15998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -3424,13 +3442,13 @@
         <v>57511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3463,13 @@
         <v>32916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3460,13 +3478,13 @@
         <v>13391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3475,13 +3493,13 @@
         <v>46308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3514,13 @@
         <v>26079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3511,13 +3529,13 @@
         <v>5773</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3526,13 +3544,13 @@
         <v>31852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3565,13 @@
         <v>163107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -3562,13 +3580,13 @@
         <v>45822</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -3577,18 +3595,18 @@
         <v>208930</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -3600,13 +3618,13 @@
         <v>10911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3615,13 +3633,13 @@
         <v>1562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3630,13 +3648,13 @@
         <v>12473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3669,13 @@
         <v>4054</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3666,13 +3684,13 @@
         <v>2104</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -3681,10 +3699,10 @@
         <v>6158</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>148</v>
@@ -3720,10 +3738,10 @@
         <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -3732,13 +3750,13 @@
         <v>29926</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3771,13 @@
         <v>15128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3768,10 +3786,10 @@
         <v>4886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>162</v>
@@ -3858,10 +3876,10 @@
         <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3870,10 +3888,10 @@
         <v>7716</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>179</v>
@@ -3957,13 +3975,13 @@
         <v>98559</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7">
         <v>44</v>
@@ -3972,13 +3990,13 @@
         <v>44538</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>137</v>
@@ -3987,13 +4005,13 @@
         <v>143097</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4079,13 @@
         <v>1004</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4079,10 +4097,10 @@
         <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4166,10 +4184,10 @@
         <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4181,10 +4199,10 @@
         <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4193,13 +4211,13 @@
         <v>6053</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4232,13 @@
         <v>12737</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4229,13 +4247,13 @@
         <v>6577</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -4244,13 +4262,13 @@
         <v>19314</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4283,13 @@
         <v>8971</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -4280,13 +4298,13 @@
         <v>4248</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -4298,10 +4316,10 @@
         <v>152</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4334,13 @@
         <v>9225</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4331,13 +4349,13 @@
         <v>3271</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -4346,13 +4364,13 @@
         <v>12496</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4385,13 @@
         <v>50150</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -4382,13 +4400,13 @@
         <v>21369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>66</v>
@@ -4397,18 +4415,18 @@
         <v>71519</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -4420,13 +4438,13 @@
         <v>4405</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4438,10 +4456,10 @@
         <v>23</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -4450,13 +4468,13 @@
         <v>4405</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4489,13 @@
         <v>1049</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4486,13 +4504,13 @@
         <v>1117</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4501,13 +4519,13 @@
         <v>2166</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4540,13 @@
         <v>5526</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4540,10 +4558,10 @@
         <v>23</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -4552,13 +4570,13 @@
         <v>5526</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,10 +4594,10 @@
         <v>23</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -4591,10 +4609,10 @@
         <v>23</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -4606,10 +4624,10 @@
         <v>23</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4642,13 @@
         <v>4584</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -4639,13 +4657,13 @@
         <v>3449</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -4654,13 +4672,13 @@
         <v>8033</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4693,13 @@
         <v>10909</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -4690,13 +4708,13 @@
         <v>1115</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -4705,13 +4723,13 @@
         <v>12024</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4744,13 @@
         <v>4809</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -4741,13 +4759,13 @@
         <v>4123</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -4756,13 +4774,13 @@
         <v>8932</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>288</v>
+        <v>115</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4795,13 @@
         <v>31282</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H43" s="7">
         <v>8</v>
@@ -4792,13 +4810,13 @@
         <v>9805</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M43" s="7">
         <v>36</v>
@@ -4807,18 +4825,18 @@
         <v>41087</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -4830,13 +4848,13 @@
         <v>868</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -4845,13 +4863,13 @@
         <v>909</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -4860,13 +4878,13 @@
         <v>1777</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,10 +4902,10 @@
         <v>23</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4899,10 +4917,10 @@
         <v>23</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -4914,10 +4932,10 @@
         <v>23</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4950,13 @@
         <v>2623</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4947,13 +4965,13 @@
         <v>1079</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -4962,13 +4980,13 @@
         <v>3702</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,10 +5004,10 @@
         <v>23</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -5001,10 +5019,10 @@
         <v>23</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -5016,10 +5034,10 @@
         <v>23</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5052,13 @@
         <v>936</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -5052,10 +5070,10 @@
         <v>23</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -5064,13 +5082,13 @@
         <v>936</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5103,13 @@
         <v>946</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -5100,13 +5118,13 @@
         <v>1016</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -5115,13 +5133,13 @@
         <v>1962</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,10 +5157,10 @@
         <v>23</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -5151,13 +5169,13 @@
         <v>1838</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -5166,13 +5184,13 @@
         <v>1838</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5205,13 @@
         <v>5374</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -5202,13 +5220,13 @@
         <v>4842</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M51" s="7">
         <v>10</v>
@@ -5217,13 +5235,13 @@
         <v>10216</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5258,13 @@
         <v>31041</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
@@ -5255,13 +5273,13 @@
         <v>7243</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M52" s="7">
         <v>36</v>
@@ -5270,13 +5288,13 @@
         <v>38284</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5309,13 @@
         <v>24755</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H53" s="7">
         <v>8</v>
@@ -5306,13 +5324,13 @@
         <v>7884</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M53" s="7">
         <v>31</v>
@@ -5321,13 +5339,13 @@
         <v>32640</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,7 +5360,7 @@
         <v>108771</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>342</v>
@@ -5363,7 +5381,7 @@
         <v>345</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="M54" s="7">
         <v>126</v>
@@ -5372,13 +5390,13 @@
         <v>131915</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5411,13 @@
         <v>49758</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H55" s="7">
         <v>16</v>
@@ -5408,13 +5426,13 @@
         <v>16288</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M55" s="7">
         <v>62</v>
@@ -5423,13 +5441,13 @@
         <v>66046</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,10 +5531,10 @@
         <v>370</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M57" s="7">
         <v>128</v>
@@ -5525,13 +5543,13 @@
         <v>133199</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5564,13 @@
         <v>74685</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H58" s="7">
         <v>18</v>
@@ -5561,13 +5579,13 @@
         <v>20433</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M58" s="7">
         <v>84</v>
@@ -5576,13 +5594,13 @@
         <v>95117</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5615,13 @@
         <v>488006</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H59" s="7">
         <v>170</v>
@@ -5612,13 +5630,13 @@
         <v>172539</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M59" s="7">
         <v>627</v>
@@ -5627,18 +5645,18 @@
         <v>660545</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B046D4-0358-4684-9418-41BE7564C796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE7C80-802A-4B93-8043-B58B3658F383}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5677,7 +5695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5784,13 +5802,13 @@
         <v>3505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5799,13 +5817,13 @@
         <v>1094</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5814,7 +5832,7 @@
         <v>4599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>387</v>
@@ -5865,10 +5883,10 @@
         <v>18770</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>396</v>
@@ -5916,13 +5934,13 @@
         <v>56481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5955,13 @@
         <v>15205</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5952,13 +5970,13 @@
         <v>13126</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5970,10 +5988,10 @@
         <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +6006,13 @@
         <v>61808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6003,13 +6021,13 @@
         <v>15966</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>419</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -6018,13 +6036,13 @@
         <v>77773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6057,13 @@
         <v>24192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -6054,13 +6072,13 @@
         <v>8747</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6069,13 +6087,13 @@
         <v>32939</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6108,13 @@
         <v>17630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6105,13 +6123,13 @@
         <v>4546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6120,13 +6138,13 @@
         <v>22177</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6159,13 @@
         <v>183906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6156,13 +6174,13 @@
         <v>57164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -6171,18 +6189,18 @@
         <v>241070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -6194,13 +6212,13 @@
         <v>5501</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6209,13 +6227,13 @@
         <v>3623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -6224,13 +6242,13 @@
         <v>9124</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6263,13 @@
         <v>3819</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6260,13 +6278,13 @@
         <v>3495</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6275,13 +6293,13 @@
         <v>7314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6314,13 @@
         <v>37643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -6311,13 +6329,13 @@
         <v>18660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -6326,13 +6344,13 @@
         <v>56303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6365,13 @@
         <v>18506</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6362,13 +6380,13 @@
         <v>4826</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -6377,13 +6395,13 @@
         <v>23331</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6416,13 @@
         <v>37074</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6413,13 +6431,13 @@
         <v>12663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6428,13 +6446,13 @@
         <v>49737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6467,13 @@
         <v>21472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6464,13 +6482,13 @@
         <v>14764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -6482,10 +6500,10 @@
         <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6518,13 @@
         <v>10205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -6515,13 +6533,13 @@
         <v>3799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -6530,13 +6548,13 @@
         <v>14003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6569,13 @@
         <v>134219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -6566,13 +6584,13 @@
         <v>61830</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -6581,18 +6599,18 @@
         <v>196049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -6604,13 +6622,13 @@
         <v>5354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>492</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6619,13 +6637,13 @@
         <v>1660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6634,13 +6652,13 @@
         <v>7014</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6673,13 @@
         <v>10962</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6670,13 +6688,13 @@
         <v>1529</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -6685,13 +6703,13 @@
         <v>12492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,10 +6724,10 @@
         <v>25801</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>364</v>
@@ -6721,13 +6739,13 @@
         <v>15058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -6736,13 +6754,13 @@
         <v>40860</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>509</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6775,13 @@
         <v>21344</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6772,13 +6790,13 @@
         <v>6204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -6787,13 +6805,13 @@
         <v>27548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6826,13 @@
         <v>40971</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -6823,13 +6841,13 @@
         <v>19054</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -6838,13 +6856,13 @@
         <v>60025</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6877,13 @@
         <v>26817</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -6874,13 +6892,13 @@
         <v>11016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6889,13 +6907,13 @@
         <v>37833</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,13 +6928,13 @@
         <v>15617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6925,13 +6943,13 @@
         <v>3729</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -6940,13 +6958,13 @@
         <v>19345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,13 +6979,13 @@
         <v>146866</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6976,13 +6994,13 @@
         <v>58250</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>214</v>
@@ -6991,13 +7009,13 @@
         <v>205116</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7032,13 @@
         <v>2263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7029,13 +7047,13 @@
         <v>1395</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7044,13 +7062,13 @@
         <v>3658</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7083,13 @@
         <v>2684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -7080,13 +7098,13 @@
         <v>1267</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7095,13 +7113,13 @@
         <v>3951</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7134,13 @@
         <v>21290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -7131,13 +7149,13 @@
         <v>11292</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -7146,13 +7164,13 @@
         <v>32582</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7185,13 @@
         <v>22337</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7182,13 +7200,13 @@
         <v>9426</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M31" s="7">
         <v>24</v>
@@ -7197,13 +7215,13 @@
         <v>31763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7236,13 @@
         <v>38355</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -7233,13 +7251,13 @@
         <v>14449</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>575</v>
+        <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -7248,13 +7266,13 @@
         <v>52803</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7287,13 @@
         <v>14366</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -7284,13 +7302,13 @@
         <v>8802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M33" s="7">
         <v>29</v>
@@ -7299,13 +7317,13 @@
         <v>23168</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>590</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,13 +7338,13 @@
         <v>9396</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>587</v>
+        <v>275</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>588</v>
+        <v>101</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7335,13 +7353,13 @@
         <v>1965</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>41</v>
+        <v>594</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -7350,13 +7368,13 @@
         <v>11360</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>593</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,13 +7389,13 @@
         <v>110690</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -7386,13 +7404,13 @@
         <v>48595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>177</v>
@@ -7401,18 +7419,18 @@
         <v>159284</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -7424,13 +7442,13 @@
         <v>3169</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -7439,13 +7457,13 @@
         <v>2163</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>33</v>
+        <v>603</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -7454,13 +7472,13 @@
         <v>5331</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7493,13 @@
         <v>2305</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7493,10 +7511,10 @@
         <v>23</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7505,13 +7523,13 @@
         <v>2305</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7544,13 @@
         <v>8961</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -7541,13 +7559,13 @@
         <v>5610</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -7556,13 +7574,13 @@
         <v>14571</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7595,13 @@
         <v>5532</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -7592,13 +7610,13 @@
         <v>1901</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>371</v>
+        <v>625</v>
       </c>
       <c r="M39" s="7">
         <v>10</v>
@@ -7607,13 +7625,13 @@
         <v>7432</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>401</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7646,13 @@
         <v>9182</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -7643,13 +7661,13 @@
         <v>2496</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="M40" s="7">
         <v>17</v>
@@ -7658,13 +7676,13 @@
         <v>11678</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7697,13 @@
         <v>8564</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -7694,13 +7712,13 @@
         <v>5158</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="M41" s="7">
         <v>18</v>
@@ -7709,13 +7727,13 @@
         <v>13721</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7748,13 @@
         <v>7828</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -7745,13 +7763,13 @@
         <v>1324</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -7760,13 +7778,13 @@
         <v>9151</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>128</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7799,13 @@
         <v>45540</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7796,13 +7814,13 @@
         <v>18651</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M43" s="7">
         <v>84</v>
@@ -7811,18 +7829,18 @@
         <v>64190</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -7834,13 +7852,13 @@
         <v>3301</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -7849,13 +7867,13 @@
         <v>941</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -7864,13 +7882,13 @@
         <v>4242</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7903,13 @@
         <v>2801</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7903,10 +7921,10 @@
         <v>23</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="M45" s="7">
         <v>4</v>
@@ -7915,13 +7933,13 @@
         <v>2801</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7954,13 @@
         <v>5356</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -7951,13 +7969,13 @@
         <v>1258</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="M46" s="7">
         <v>11</v>
@@ -7966,13 +7984,13 @@
         <v>6614</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +8005,13 @@
         <v>1668</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -8002,13 +8020,13 @@
         <v>615</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -8017,13 +8035,13 @@
         <v>2283</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8056,13 @@
         <v>3557</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -8053,13 +8071,13 @@
         <v>877</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="M48" s="7">
         <v>7</v>
@@ -8068,13 +8086,13 @@
         <v>4434</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>676</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8107,13 @@
         <v>6966</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -8104,13 +8122,13 @@
         <v>803</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="M49" s="7">
         <v>12</v>
@@ -8122,10 +8140,10 @@
         <v>394</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8158,13 @@
         <v>159</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>683</v>
+        <v>250</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -8155,13 +8173,13 @@
         <v>769</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -8170,13 +8188,13 @@
         <v>929</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>58</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8209,13 @@
         <v>23809</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H51" s="7">
         <v>12</v>
@@ -8206,13 +8224,13 @@
         <v>5263</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M51" s="7">
         <v>47</v>
@@ -8221,13 +8239,13 @@
         <v>29072</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8262,13 @@
         <v>23093</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="H52" s="7">
         <v>13</v>
@@ -8259,13 +8277,13 @@
         <v>10875</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>588</v>
+        <v>101</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="M52" s="7">
         <v>35</v>
@@ -8274,13 +8292,13 @@
         <v>33968</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>390</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8313,13 @@
         <v>35957</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>693</v>
+        <v>286</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H53" s="7">
         <v>11</v>
@@ -8310,13 +8328,13 @@
         <v>11675</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="M53" s="7">
         <v>42</v>
@@ -8325,13 +8343,13 @@
         <v>47632</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8364,13 @@
         <v>147230</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>185</v>
+        <v>704</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H54" s="7">
         <v>72</v>
@@ -8361,13 +8379,13 @@
         <v>60179</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="M54" s="7">
         <v>188</v>
@@ -8376,13 +8394,13 @@
         <v>207409</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,13 +8415,13 @@
         <v>84592</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="H55" s="7">
         <v>28</v>
@@ -8412,13 +8430,13 @@
         <v>36098</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>173</v>
+        <v>714</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="M55" s="7">
         <v>91</v>
@@ -8427,13 +8445,13 @@
         <v>120689</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,13 +8466,13 @@
         <v>190946</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="H56" s="7">
         <v>75</v>
@@ -8463,13 +8481,13 @@
         <v>65504</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="M56" s="7">
         <v>221</v>
@@ -8478,13 +8496,13 @@
         <v>256450</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,13 +8517,13 @@
         <v>102376</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="H57" s="7">
         <v>55</v>
@@ -8514,13 +8532,13 @@
         <v>49290</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>725</v>
+        <v>45</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M57" s="7">
         <v>141</v>
@@ -8529,13 +8547,13 @@
         <v>151666</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>176</v>
+        <v>732</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8550,13 +8568,13 @@
         <v>60835</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="H58" s="7">
         <v>18</v>
@@ -8565,13 +8583,13 @@
         <v>16132</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="M58" s="7">
         <v>64</v>
@@ -8580,13 +8598,13 @@
         <v>76967</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8601,13 +8619,13 @@
         <v>645029</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H59" s="7">
         <v>272</v>
@@ -8616,13 +8634,13 @@
         <v>249753</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M59" s="7">
         <v>782</v>
@@ -8631,18 +8649,18 @@
         <v>894781</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
